--- a/experiments/dbscan-ajk/instructor-base/0.1/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-base/0.1/prediction.xlsx
@@ -468,27 +468,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,17 +518,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,17 +1138,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,57 +1348,57 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,47 +1468,47 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,17 +1808,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,47 +1858,47 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,17 +2078,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,47 +2278,47 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,17 +2718,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,17 +2938,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,17 +2958,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,177 +2978,177 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,17 +3228,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,47 +3248,47 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,17 +3318,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,37 +3338,37 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,17 +3478,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,47 +4028,47 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,27 +4118,27 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,17 +4288,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,27 +4318,27 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,27 +4548,27 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,17 +4758,17 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,17 +4788,17 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4898,17 +4898,17 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5088,17 +5088,17 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,27 +5108,27 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5248,37 +5248,37 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft. Please step farther away.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Your palm is too far away from the aircraft. Please step closer.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,941 +5348,941 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Your palm is too close to the aircraft. Please step farther away.</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Your palm is too far away from the aircraft. Please step closer.</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
